--- a/docs/examples/content/36.xlsx
+++ b/docs/examples/content/36.xlsx
@@ -357,11 +357,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
